--- a/mosip_master/xlsx/device_master.xlsx
+++ b/mosip_master/xlsx/device_master.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="550" uniqueCount="34">
   <si>
     <t xml:space="preserve">lang_code</t>
   </si>
@@ -101,6 +101,30 @@
   </si>
   <si>
     <t xml:space="preserve">TZT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fra</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Scanner IRIS factice</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Faux scanner d'empreintes digitales</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Caméra factice</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ara</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ماسح IRIS الوهمي</t>
+  </si>
+  <si>
+    <t xml:space="preserve">الماسح الضوئي لبصمات الأصابع</t>
+  </si>
+  <si>
+    <t xml:space="preserve">كاميرا وهمية</t>
   </si>
 </sst>
 </file>
@@ -191,7 +215,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -210,6 +234,14 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -233,17 +265,23 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:J37"/>
+  <dimension ref="A1:J1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A5" activeCellId="0" sqref="A5"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A89" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C74" activeCellId="0" sqref="C74:C109"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.4453125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.453125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="8.43"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="7" min="6" style="1" width="8.43"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="10" min="9" style="1" width="8.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="30.21"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="27.56"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="19.85"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="17.09"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="16.1"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="12.45"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="26.79"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="8.43"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1322,11 +1360,2208 @@
         <v>14</v>
       </c>
     </row>
+    <row r="38" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B38" s="1" t="n">
+        <v>1001</v>
+      </c>
+      <c r="C38" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D38" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E38" s="4" t="n">
+        <v>3456789012</v>
+      </c>
+      <c r="G38" s="1" t="n">
+        <v>327</v>
+      </c>
+      <c r="H38" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="I38" s="1" t="n">
+        <v>10001</v>
+      </c>
+      <c r="J38" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B39" s="1" t="n">
+        <v>2001</v>
+      </c>
+      <c r="C39" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D39" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E39" s="4" t="n">
+        <v>1234567890</v>
+      </c>
+      <c r="G39" s="1" t="n">
+        <v>165</v>
+      </c>
+      <c r="H39" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="I39" s="1" t="n">
+        <v>10001</v>
+      </c>
+      <c r="J39" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B40" s="1" t="n">
+        <v>3001</v>
+      </c>
+      <c r="C40" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="D40" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E40" s="4" t="n">
+        <v>2345678901</v>
+      </c>
+      <c r="G40" s="1" t="n">
+        <v>736</v>
+      </c>
+      <c r="H40" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="I40" s="1" t="n">
+        <v>10001</v>
+      </c>
+      <c r="J40" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B41" s="1" t="n">
+        <v>1002</v>
+      </c>
+      <c r="C41" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D41" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E41" s="4" t="n">
+        <v>3456789012</v>
+      </c>
+      <c r="G41" s="1" t="n">
+        <v>327</v>
+      </c>
+      <c r="H41" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="I41" s="1" t="n">
+        <v>10002</v>
+      </c>
+      <c r="J41" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B42" s="1" t="n">
+        <v>2002</v>
+      </c>
+      <c r="C42" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D42" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E42" s="4" t="n">
+        <v>1234567890</v>
+      </c>
+      <c r="G42" s="1" t="n">
+        <v>165</v>
+      </c>
+      <c r="H42" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="I42" s="1" t="n">
+        <v>10002</v>
+      </c>
+      <c r="J42" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B43" s="1" t="n">
+        <v>3002</v>
+      </c>
+      <c r="C43" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="D43" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E43" s="4" t="n">
+        <v>2345678901</v>
+      </c>
+      <c r="G43" s="1" t="n">
+        <v>736</v>
+      </c>
+      <c r="H43" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="I43" s="1" t="n">
+        <v>10002</v>
+      </c>
+      <c r="J43" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B44" s="1" t="n">
+        <v>1003</v>
+      </c>
+      <c r="C44" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D44" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E44" s="4" t="n">
+        <v>3456789012</v>
+      </c>
+      <c r="G44" s="1" t="n">
+        <v>327</v>
+      </c>
+      <c r="H44" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="I44" s="1" t="n">
+        <v>10003</v>
+      </c>
+      <c r="J44" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B45" s="1" t="n">
+        <v>2003</v>
+      </c>
+      <c r="C45" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D45" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E45" s="4" t="n">
+        <v>1234567890</v>
+      </c>
+      <c r="G45" s="1" t="n">
+        <v>165</v>
+      </c>
+      <c r="H45" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="I45" s="1" t="n">
+        <v>10003</v>
+      </c>
+      <c r="J45" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B46" s="1" t="n">
+        <v>3003</v>
+      </c>
+      <c r="C46" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="D46" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E46" s="4" t="n">
+        <v>2345678901</v>
+      </c>
+      <c r="G46" s="1" t="n">
+        <v>736</v>
+      </c>
+      <c r="H46" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="I46" s="1" t="n">
+        <v>10003</v>
+      </c>
+      <c r="J46" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B47" s="1" t="n">
+        <v>1004</v>
+      </c>
+      <c r="C47" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D47" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E47" s="4" t="n">
+        <v>3456789012</v>
+      </c>
+      <c r="G47" s="1" t="n">
+        <v>327</v>
+      </c>
+      <c r="H47" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="I47" s="1" t="n">
+        <v>10004</v>
+      </c>
+      <c r="J47" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B48" s="1" t="n">
+        <v>2004</v>
+      </c>
+      <c r="C48" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D48" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E48" s="4" t="n">
+        <v>1234567890</v>
+      </c>
+      <c r="G48" s="1" t="n">
+        <v>165</v>
+      </c>
+      <c r="H48" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="I48" s="1" t="n">
+        <v>10004</v>
+      </c>
+      <c r="J48" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B49" s="1" t="n">
+        <v>3004</v>
+      </c>
+      <c r="C49" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="D49" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E49" s="4" t="n">
+        <v>2345678901</v>
+      </c>
+      <c r="G49" s="1" t="n">
+        <v>736</v>
+      </c>
+      <c r="H49" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="I49" s="1" t="n">
+        <v>10004</v>
+      </c>
+      <c r="J49" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B50" s="1" t="n">
+        <v>1005</v>
+      </c>
+      <c r="C50" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D50" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E50" s="4" t="n">
+        <v>3456789012</v>
+      </c>
+      <c r="G50" s="1" t="n">
+        <v>327</v>
+      </c>
+      <c r="H50" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="I50" s="1" t="n">
+        <v>10005</v>
+      </c>
+      <c r="J50" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B51" s="1" t="n">
+        <v>2005</v>
+      </c>
+      <c r="C51" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D51" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E51" s="4" t="n">
+        <v>1234567890</v>
+      </c>
+      <c r="G51" s="1" t="n">
+        <v>165</v>
+      </c>
+      <c r="H51" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="I51" s="1" t="n">
+        <v>10005</v>
+      </c>
+      <c r="J51" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B52" s="1" t="n">
+        <v>3005</v>
+      </c>
+      <c r="C52" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="D52" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E52" s="4" t="n">
+        <v>2345678901</v>
+      </c>
+      <c r="G52" s="1" t="n">
+        <v>736</v>
+      </c>
+      <c r="H52" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="I52" s="1" t="n">
+        <v>10005</v>
+      </c>
+      <c r="J52" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B53" s="1" t="n">
+        <v>1006</v>
+      </c>
+      <c r="C53" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D53" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E53" s="4" t="n">
+        <v>3456789012</v>
+      </c>
+      <c r="G53" s="1" t="n">
+        <v>327</v>
+      </c>
+      <c r="H53" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="I53" s="1" t="n">
+        <v>10006</v>
+      </c>
+      <c r="J53" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B54" s="1" t="n">
+        <v>2006</v>
+      </c>
+      <c r="C54" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D54" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E54" s="4" t="n">
+        <v>1234567890</v>
+      </c>
+      <c r="G54" s="1" t="n">
+        <v>165</v>
+      </c>
+      <c r="H54" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="I54" s="1" t="n">
+        <v>10006</v>
+      </c>
+      <c r="J54" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B55" s="1" t="n">
+        <v>3006</v>
+      </c>
+      <c r="C55" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="D55" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E55" s="4" t="n">
+        <v>2345678901</v>
+      </c>
+      <c r="G55" s="1" t="n">
+        <v>736</v>
+      </c>
+      <c r="H55" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="I55" s="1" t="n">
+        <v>10006</v>
+      </c>
+      <c r="J55" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B56" s="1" t="n">
+        <v>1007</v>
+      </c>
+      <c r="C56" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D56" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E56" s="4" t="n">
+        <v>3456789012</v>
+      </c>
+      <c r="G56" s="1" t="n">
+        <v>327</v>
+      </c>
+      <c r="H56" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="I56" s="1" t="n">
+        <v>10007</v>
+      </c>
+      <c r="J56" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="57" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B57" s="1" t="n">
+        <v>2007</v>
+      </c>
+      <c r="C57" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D57" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E57" s="4" t="n">
+        <v>1234567890</v>
+      </c>
+      <c r="G57" s="1" t="n">
+        <v>165</v>
+      </c>
+      <c r="H57" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="I57" s="1" t="n">
+        <v>10007</v>
+      </c>
+      <c r="J57" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A58" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B58" s="1" t="n">
+        <v>3007</v>
+      </c>
+      <c r="C58" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="D58" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E58" s="4" t="n">
+        <v>2345678901</v>
+      </c>
+      <c r="G58" s="1" t="n">
+        <v>736</v>
+      </c>
+      <c r="H58" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="I58" s="1" t="n">
+        <v>10007</v>
+      </c>
+      <c r="J58" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="59" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B59" s="1" t="n">
+        <v>1008</v>
+      </c>
+      <c r="C59" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D59" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E59" s="4" t="n">
+        <v>3456789012</v>
+      </c>
+      <c r="G59" s="1" t="n">
+        <v>327</v>
+      </c>
+      <c r="H59" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="I59" s="1" t="n">
+        <v>10008</v>
+      </c>
+      <c r="J59" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="60" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A60" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B60" s="1" t="n">
+        <v>2008</v>
+      </c>
+      <c r="C60" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D60" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E60" s="4" t="n">
+        <v>1234567890</v>
+      </c>
+      <c r="G60" s="1" t="n">
+        <v>165</v>
+      </c>
+      <c r="H60" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="I60" s="1" t="n">
+        <v>10008</v>
+      </c>
+      <c r="J60" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="61" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A61" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B61" s="1" t="n">
+        <v>3008</v>
+      </c>
+      <c r="C61" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="D61" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E61" s="4" t="n">
+        <v>2345678901</v>
+      </c>
+      <c r="G61" s="1" t="n">
+        <v>736</v>
+      </c>
+      <c r="H61" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="I61" s="1" t="n">
+        <v>10008</v>
+      </c>
+      <c r="J61" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="62" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A62" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B62" s="1" t="n">
+        <v>1009</v>
+      </c>
+      <c r="C62" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D62" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E62" s="4" t="n">
+        <v>3456789012</v>
+      </c>
+      <c r="G62" s="1" t="n">
+        <v>327</v>
+      </c>
+      <c r="H62" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="I62" s="1" t="n">
+        <v>10009</v>
+      </c>
+      <c r="J62" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="63" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A63" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B63" s="1" t="n">
+        <v>2009</v>
+      </c>
+      <c r="C63" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D63" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E63" s="4" t="n">
+        <v>1234567890</v>
+      </c>
+      <c r="G63" s="1" t="n">
+        <v>165</v>
+      </c>
+      <c r="H63" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="I63" s="1" t="n">
+        <v>10009</v>
+      </c>
+      <c r="J63" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="64" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A64" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B64" s="1" t="n">
+        <v>3009</v>
+      </c>
+      <c r="C64" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="D64" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E64" s="4" t="n">
+        <v>2345678901</v>
+      </c>
+      <c r="G64" s="1" t="n">
+        <v>736</v>
+      </c>
+      <c r="H64" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="I64" s="1" t="n">
+        <v>10009</v>
+      </c>
+      <c r="J64" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="65" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A65" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B65" s="1" t="n">
+        <v>1010</v>
+      </c>
+      <c r="C65" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D65" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E65" s="4" t="n">
+        <v>3456789012</v>
+      </c>
+      <c r="G65" s="1" t="n">
+        <v>327</v>
+      </c>
+      <c r="H65" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="I65" s="1" t="n">
+        <v>10010</v>
+      </c>
+      <c r="J65" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="66" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A66" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B66" s="1" t="n">
+        <v>2010</v>
+      </c>
+      <c r="C66" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D66" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E66" s="4" t="n">
+        <v>1234567890</v>
+      </c>
+      <c r="G66" s="1" t="n">
+        <v>165</v>
+      </c>
+      <c r="H66" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="I66" s="1" t="n">
+        <v>10010</v>
+      </c>
+      <c r="J66" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="67" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A67" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B67" s="1" t="n">
+        <v>3010</v>
+      </c>
+      <c r="C67" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="D67" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E67" s="4" t="n">
+        <v>2345678901</v>
+      </c>
+      <c r="G67" s="1" t="n">
+        <v>736</v>
+      </c>
+      <c r="H67" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="I67" s="1" t="n">
+        <v>10010</v>
+      </c>
+      <c r="J67" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="68" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A68" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B68" s="1" t="n">
+        <v>1011</v>
+      </c>
+      <c r="C68" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D68" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E68" s="4" t="n">
+        <v>3456789012</v>
+      </c>
+      <c r="G68" s="1" t="n">
+        <v>327</v>
+      </c>
+      <c r="H68" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="I68" s="1" t="n">
+        <v>10011</v>
+      </c>
+      <c r="J68" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="69" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A69" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B69" s="1" t="n">
+        <v>2011</v>
+      </c>
+      <c r="C69" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D69" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E69" s="4" t="n">
+        <v>1234567890</v>
+      </c>
+      <c r="G69" s="1" t="n">
+        <v>165</v>
+      </c>
+      <c r="H69" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="I69" s="1" t="n">
+        <v>10011</v>
+      </c>
+      <c r="J69" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="70" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A70" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B70" s="1" t="n">
+        <v>3011</v>
+      </c>
+      <c r="C70" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="D70" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E70" s="4" t="n">
+        <v>2345678901</v>
+      </c>
+      <c r="G70" s="1" t="n">
+        <v>736</v>
+      </c>
+      <c r="H70" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="I70" s="1" t="n">
+        <v>10011</v>
+      </c>
+      <c r="J70" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="71" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A71" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B71" s="1" t="n">
+        <v>1012</v>
+      </c>
+      <c r="C71" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D71" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E71" s="4" t="n">
+        <v>3456789012</v>
+      </c>
+      <c r="G71" s="1" t="n">
+        <v>327</v>
+      </c>
+      <c r="H71" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="I71" s="1" t="n">
+        <v>10012</v>
+      </c>
+      <c r="J71" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="72" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A72" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B72" s="1" t="n">
+        <v>2012</v>
+      </c>
+      <c r="C72" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D72" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E72" s="4" t="n">
+        <v>1234567890</v>
+      </c>
+      <c r="G72" s="1" t="n">
+        <v>165</v>
+      </c>
+      <c r="H72" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="I72" s="1" t="n">
+        <v>10012</v>
+      </c>
+      <c r="J72" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="73" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A73" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B73" s="1" t="n">
+        <v>3012</v>
+      </c>
+      <c r="C73" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="D73" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E73" s="4" t="n">
+        <v>2345678901</v>
+      </c>
+      <c r="G73" s="1" t="n">
+        <v>736</v>
+      </c>
+      <c r="H73" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="I73" s="1" t="n">
+        <v>10012</v>
+      </c>
+      <c r="J73" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="74" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A74" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B74" s="1" t="n">
+        <v>1001</v>
+      </c>
+      <c r="C74" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="D74" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E74" s="4" t="n">
+        <v>3456789012</v>
+      </c>
+      <c r="G74" s="1" t="n">
+        <v>327</v>
+      </c>
+      <c r="H74" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="I74" s="1" t="n">
+        <v>10001</v>
+      </c>
+      <c r="J74" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="75" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A75" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B75" s="1" t="n">
+        <v>2001</v>
+      </c>
+      <c r="C75" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="D75" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E75" s="4" t="n">
+        <v>1234567890</v>
+      </c>
+      <c r="G75" s="1" t="n">
+        <v>165</v>
+      </c>
+      <c r="H75" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="I75" s="1" t="n">
+        <v>10001</v>
+      </c>
+      <c r="J75" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="76" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A76" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B76" s="1" t="n">
+        <v>3001</v>
+      </c>
+      <c r="C76" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="D76" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E76" s="4" t="n">
+        <v>2345678901</v>
+      </c>
+      <c r="G76" s="1" t="n">
+        <v>736</v>
+      </c>
+      <c r="H76" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="I76" s="1" t="n">
+        <v>10001</v>
+      </c>
+      <c r="J76" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="77" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A77" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B77" s="1" t="n">
+        <v>1002</v>
+      </c>
+      <c r="C77" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="D77" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E77" s="4" t="n">
+        <v>3456789012</v>
+      </c>
+      <c r="G77" s="1" t="n">
+        <v>327</v>
+      </c>
+      <c r="H77" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="I77" s="1" t="n">
+        <v>10002</v>
+      </c>
+      <c r="J77" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="78" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A78" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B78" s="1" t="n">
+        <v>2002</v>
+      </c>
+      <c r="C78" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="D78" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E78" s="4" t="n">
+        <v>1234567890</v>
+      </c>
+      <c r="G78" s="1" t="n">
+        <v>165</v>
+      </c>
+      <c r="H78" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="I78" s="1" t="n">
+        <v>10002</v>
+      </c>
+      <c r="J78" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="79" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A79" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B79" s="1" t="n">
+        <v>3002</v>
+      </c>
+      <c r="C79" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="D79" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E79" s="4" t="n">
+        <v>2345678901</v>
+      </c>
+      <c r="G79" s="1" t="n">
+        <v>736</v>
+      </c>
+      <c r="H79" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="I79" s="1" t="n">
+        <v>10002</v>
+      </c>
+      <c r="J79" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="80" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A80" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B80" s="1" t="n">
+        <v>1003</v>
+      </c>
+      <c r="C80" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="D80" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E80" s="4" t="n">
+        <v>3456789012</v>
+      </c>
+      <c r="G80" s="1" t="n">
+        <v>327</v>
+      </c>
+      <c r="H80" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="I80" s="1" t="n">
+        <v>10003</v>
+      </c>
+      <c r="J80" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="81" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A81" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B81" s="1" t="n">
+        <v>2003</v>
+      </c>
+      <c r="C81" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="D81" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E81" s="4" t="n">
+        <v>1234567890</v>
+      </c>
+      <c r="G81" s="1" t="n">
+        <v>165</v>
+      </c>
+      <c r="H81" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="I81" s="1" t="n">
+        <v>10003</v>
+      </c>
+      <c r="J81" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="82" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A82" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B82" s="1" t="n">
+        <v>3003</v>
+      </c>
+      <c r="C82" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="D82" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E82" s="4" t="n">
+        <v>2345678901</v>
+      </c>
+      <c r="G82" s="1" t="n">
+        <v>736</v>
+      </c>
+      <c r="H82" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="I82" s="1" t="n">
+        <v>10003</v>
+      </c>
+      <c r="J82" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="83" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A83" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B83" s="1" t="n">
+        <v>1004</v>
+      </c>
+      <c r="C83" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="D83" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E83" s="4" t="n">
+        <v>3456789012</v>
+      </c>
+      <c r="G83" s="1" t="n">
+        <v>327</v>
+      </c>
+      <c r="H83" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="I83" s="1" t="n">
+        <v>10004</v>
+      </c>
+      <c r="J83" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="84" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A84" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B84" s="1" t="n">
+        <v>2004</v>
+      </c>
+      <c r="C84" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="D84" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E84" s="4" t="n">
+        <v>1234567890</v>
+      </c>
+      <c r="G84" s="1" t="n">
+        <v>165</v>
+      </c>
+      <c r="H84" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="I84" s="1" t="n">
+        <v>10004</v>
+      </c>
+      <c r="J84" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="85" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A85" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B85" s="1" t="n">
+        <v>3004</v>
+      </c>
+      <c r="C85" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="D85" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E85" s="4" t="n">
+        <v>2345678901</v>
+      </c>
+      <c r="G85" s="1" t="n">
+        <v>736</v>
+      </c>
+      <c r="H85" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="I85" s="1" t="n">
+        <v>10004</v>
+      </c>
+      <c r="J85" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="86" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A86" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B86" s="1" t="n">
+        <v>1005</v>
+      </c>
+      <c r="C86" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="D86" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E86" s="4" t="n">
+        <v>3456789012</v>
+      </c>
+      <c r="G86" s="1" t="n">
+        <v>327</v>
+      </c>
+      <c r="H86" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="I86" s="1" t="n">
+        <v>10005</v>
+      </c>
+      <c r="J86" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="87" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A87" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B87" s="1" t="n">
+        <v>2005</v>
+      </c>
+      <c r="C87" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="D87" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E87" s="4" t="n">
+        <v>1234567890</v>
+      </c>
+      <c r="G87" s="1" t="n">
+        <v>165</v>
+      </c>
+      <c r="H87" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="I87" s="1" t="n">
+        <v>10005</v>
+      </c>
+      <c r="J87" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="88" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A88" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B88" s="1" t="n">
+        <v>3005</v>
+      </c>
+      <c r="C88" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="D88" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E88" s="4" t="n">
+        <v>2345678901</v>
+      </c>
+      <c r="G88" s="1" t="n">
+        <v>736</v>
+      </c>
+      <c r="H88" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="I88" s="1" t="n">
+        <v>10005</v>
+      </c>
+      <c r="J88" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="89" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A89" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B89" s="1" t="n">
+        <v>1006</v>
+      </c>
+      <c r="C89" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="D89" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E89" s="4" t="n">
+        <v>3456789012</v>
+      </c>
+      <c r="G89" s="1" t="n">
+        <v>327</v>
+      </c>
+      <c r="H89" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="I89" s="1" t="n">
+        <v>10006</v>
+      </c>
+      <c r="J89" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="90" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A90" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B90" s="1" t="n">
+        <v>2006</v>
+      </c>
+      <c r="C90" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="D90" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E90" s="4" t="n">
+        <v>1234567890</v>
+      </c>
+      <c r="G90" s="1" t="n">
+        <v>165</v>
+      </c>
+      <c r="H90" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="I90" s="1" t="n">
+        <v>10006</v>
+      </c>
+      <c r="J90" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="91" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A91" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B91" s="1" t="n">
+        <v>3006</v>
+      </c>
+      <c r="C91" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="D91" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E91" s="4" t="n">
+        <v>2345678901</v>
+      </c>
+      <c r="G91" s="1" t="n">
+        <v>736</v>
+      </c>
+      <c r="H91" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="I91" s="1" t="n">
+        <v>10006</v>
+      </c>
+      <c r="J91" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="92" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A92" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B92" s="1" t="n">
+        <v>1007</v>
+      </c>
+      <c r="C92" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="D92" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E92" s="4" t="n">
+        <v>3456789012</v>
+      </c>
+      <c r="G92" s="1" t="n">
+        <v>327</v>
+      </c>
+      <c r="H92" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="I92" s="1" t="n">
+        <v>10007</v>
+      </c>
+      <c r="J92" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="93" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A93" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B93" s="1" t="n">
+        <v>2007</v>
+      </c>
+      <c r="C93" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="D93" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E93" s="4" t="n">
+        <v>1234567890</v>
+      </c>
+      <c r="G93" s="1" t="n">
+        <v>165</v>
+      </c>
+      <c r="H93" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="I93" s="1" t="n">
+        <v>10007</v>
+      </c>
+      <c r="J93" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="94" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A94" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B94" s="1" t="n">
+        <v>3007</v>
+      </c>
+      <c r="C94" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="D94" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E94" s="4" t="n">
+        <v>2345678901</v>
+      </c>
+      <c r="G94" s="1" t="n">
+        <v>736</v>
+      </c>
+      <c r="H94" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="I94" s="1" t="n">
+        <v>10007</v>
+      </c>
+      <c r="J94" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="95" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A95" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B95" s="1" t="n">
+        <v>1008</v>
+      </c>
+      <c r="C95" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="D95" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E95" s="4" t="n">
+        <v>3456789012</v>
+      </c>
+      <c r="G95" s="1" t="n">
+        <v>327</v>
+      </c>
+      <c r="H95" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="I95" s="1" t="n">
+        <v>10008</v>
+      </c>
+      <c r="J95" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="96" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A96" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B96" s="1" t="n">
+        <v>2008</v>
+      </c>
+      <c r="C96" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="D96" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E96" s="4" t="n">
+        <v>1234567890</v>
+      </c>
+      <c r="G96" s="1" t="n">
+        <v>165</v>
+      </c>
+      <c r="H96" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="I96" s="1" t="n">
+        <v>10008</v>
+      </c>
+      <c r="J96" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="97" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A97" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B97" s="1" t="n">
+        <v>3008</v>
+      </c>
+      <c r="C97" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="D97" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E97" s="4" t="n">
+        <v>2345678901</v>
+      </c>
+      <c r="G97" s="1" t="n">
+        <v>736</v>
+      </c>
+      <c r="H97" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="I97" s="1" t="n">
+        <v>10008</v>
+      </c>
+      <c r="J97" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="98" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A98" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B98" s="1" t="n">
+        <v>1009</v>
+      </c>
+      <c r="C98" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="D98" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E98" s="4" t="n">
+        <v>3456789012</v>
+      </c>
+      <c r="G98" s="1" t="n">
+        <v>327</v>
+      </c>
+      <c r="H98" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="I98" s="1" t="n">
+        <v>10009</v>
+      </c>
+      <c r="J98" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="99" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A99" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B99" s="1" t="n">
+        <v>2009</v>
+      </c>
+      <c r="C99" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="D99" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E99" s="4" t="n">
+        <v>1234567890</v>
+      </c>
+      <c r="G99" s="1" t="n">
+        <v>165</v>
+      </c>
+      <c r="H99" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="I99" s="1" t="n">
+        <v>10009</v>
+      </c>
+      <c r="J99" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="100" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A100" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B100" s="1" t="n">
+        <v>3009</v>
+      </c>
+      <c r="C100" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="D100" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E100" s="4" t="n">
+        <v>2345678901</v>
+      </c>
+      <c r="G100" s="1" t="n">
+        <v>736</v>
+      </c>
+      <c r="H100" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="I100" s="1" t="n">
+        <v>10009</v>
+      </c>
+      <c r="J100" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="101" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A101" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B101" s="1" t="n">
+        <v>1010</v>
+      </c>
+      <c r="C101" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="D101" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E101" s="4" t="n">
+        <v>3456789012</v>
+      </c>
+      <c r="G101" s="1" t="n">
+        <v>327</v>
+      </c>
+      <c r="H101" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="I101" s="1" t="n">
+        <v>10010</v>
+      </c>
+      <c r="J101" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="102" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A102" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B102" s="1" t="n">
+        <v>2010</v>
+      </c>
+      <c r="C102" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="D102" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E102" s="4" t="n">
+        <v>1234567890</v>
+      </c>
+      <c r="G102" s="1" t="n">
+        <v>165</v>
+      </c>
+      <c r="H102" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="I102" s="1" t="n">
+        <v>10010</v>
+      </c>
+      <c r="J102" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="103" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A103" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B103" s="1" t="n">
+        <v>3010</v>
+      </c>
+      <c r="C103" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="D103" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E103" s="4" t="n">
+        <v>2345678901</v>
+      </c>
+      <c r="G103" s="1" t="n">
+        <v>736</v>
+      </c>
+      <c r="H103" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="I103" s="1" t="n">
+        <v>10010</v>
+      </c>
+      <c r="J103" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="104" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A104" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B104" s="1" t="n">
+        <v>1011</v>
+      </c>
+      <c r="C104" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="D104" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E104" s="4" t="n">
+        <v>3456789012</v>
+      </c>
+      <c r="G104" s="1" t="n">
+        <v>327</v>
+      </c>
+      <c r="H104" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="I104" s="1" t="n">
+        <v>10011</v>
+      </c>
+      <c r="J104" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="105" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A105" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B105" s="1" t="n">
+        <v>2011</v>
+      </c>
+      <c r="C105" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="D105" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E105" s="4" t="n">
+        <v>1234567890</v>
+      </c>
+      <c r="G105" s="1" t="n">
+        <v>165</v>
+      </c>
+      <c r="H105" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="I105" s="1" t="n">
+        <v>10011</v>
+      </c>
+      <c r="J105" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="106" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A106" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B106" s="1" t="n">
+        <v>3011</v>
+      </c>
+      <c r="C106" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="D106" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E106" s="4" t="n">
+        <v>2345678901</v>
+      </c>
+      <c r="G106" s="1" t="n">
+        <v>736</v>
+      </c>
+      <c r="H106" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="I106" s="1" t="n">
+        <v>10011</v>
+      </c>
+      <c r="J106" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="107" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A107" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B107" s="1" t="n">
+        <v>1012</v>
+      </c>
+      <c r="C107" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="D107" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E107" s="4" t="n">
+        <v>3456789012</v>
+      </c>
+      <c r="G107" s="1" t="n">
+        <v>327</v>
+      </c>
+      <c r="H107" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="I107" s="1" t="n">
+        <v>10012</v>
+      </c>
+      <c r="J107" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="108" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A108" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B108" s="1" t="n">
+        <v>2012</v>
+      </c>
+      <c r="C108" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="D108" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E108" s="4" t="n">
+        <v>1234567890</v>
+      </c>
+      <c r="G108" s="1" t="n">
+        <v>165</v>
+      </c>
+      <c r="H108" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="I108" s="1" t="n">
+        <v>10012</v>
+      </c>
+      <c r="J108" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="109" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A109" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B109" s="1" t="n">
+        <v>3012</v>
+      </c>
+      <c r="C109" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="D109" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E109" s="4" t="n">
+        <v>2345678901</v>
+      </c>
+      <c r="G109" s="1" t="n">
+        <v>736</v>
+      </c>
+      <c r="H109" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="I109" s="1" t="n">
+        <v>10012</v>
+      </c>
+      <c r="J109" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="110" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A110" s="4"/>
+    </row>
+    <row r="111" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A111" s="4"/>
+    </row>
+    <row r="112" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A112" s="4"/>
+    </row>
+    <row r="113" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A113" s="4"/>
+    </row>
+    <row r="114" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A114" s="4"/>
+    </row>
+    <row r="115" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A115" s="4"/>
+    </row>
+    <row r="116" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A116" s="4"/>
+    </row>
+    <row r="117" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A117" s="4"/>
+    </row>
+    <row r="118" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A118" s="4"/>
+    </row>
+    <row r="119" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A119" s="4"/>
+    </row>
+    <row r="120" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A120" s="4"/>
+    </row>
+    <row r="121" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A121" s="4"/>
+    </row>
+    <row r="122" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A122" s="4"/>
+    </row>
+    <row r="123" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A123" s="4"/>
+    </row>
+    <row r="124" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A124" s="4"/>
+    </row>
+    <row r="125" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A125" s="4"/>
+    </row>
+    <row r="126" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A126" s="4"/>
+    </row>
+    <row r="127" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A127" s="4"/>
+    </row>
+    <row r="128" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A128" s="4"/>
+    </row>
+    <row r="129" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A129" s="4"/>
+    </row>
+    <row r="130" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A130" s="4"/>
+    </row>
+    <row r="131" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A131" s="4"/>
+    </row>
+    <row r="132" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A132" s="4"/>
+    </row>
+    <row r="133" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A133" s="4"/>
+    </row>
+    <row r="134" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A134" s="4"/>
+    </row>
+    <row r="135" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A135" s="4"/>
+    </row>
+    <row r="136" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A136" s="4"/>
+    </row>
+    <row r="137" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A137" s="4"/>
+    </row>
+    <row r="138" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A138" s="4"/>
+    </row>
+    <row r="139" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A139" s="4"/>
+    </row>
+    <row r="140" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A140" s="4"/>
+    </row>
+    <row r="141" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A141" s="4"/>
+    </row>
+    <row r="142" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A142" s="4"/>
+    </row>
+    <row r="143" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A143" s="4"/>
+    </row>
+    <row r="144" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A144" s="4"/>
+    </row>
+    <row r="145" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A145" s="4"/>
+    </row>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <autoFilter ref="A1:J37"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
